--- a/Entrega 4/Pruebas/INICIAR_EXAMEN.xlsx
+++ b/Entrega 4/Pruebas/INICIAR_EXAMEN.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raziel\Desktop\Avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A92A555-23AB-4B79-8C27-4F1DB97F53A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E3C478-6BFB-4929-AAED-6B9A11C96DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A0856130-9E36-4820-98CA-4A2F9544A5B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A0856130-9E36-4820-98CA-4A2F9544A5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Iniciar examen</t>
   </si>
@@ -47,21 +49,12 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Iniciar examen en fecha diferente</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Iniciar examen en hora diferente</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>iniciar examen estatus terminado</t>
   </si>
   <si>
@@ -69,6 +62,48 @@
   </si>
   <si>
     <t>Si el usuario quiere iniciar el examen cuando el estatus es "terminado", entonces el sistema muestra un mensaje inidicando que el examen ya no esta disponible</t>
+  </si>
+  <si>
+    <t>El usuario inicia el examen en tiempo y fecha</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Abre la pantalla del examen</t>
+  </si>
+  <si>
+    <t>Error: el examen aun no esta habilitado</t>
+  </si>
+  <si>
+    <t>Error: el examen ya no esta disponible</t>
+  </si>
+  <si>
+    <t>Casos de uso (Datos)</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -104,8 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84216851-B793-4666-A94F-839F58899EA9}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,36 +486,313 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD4FCE5-65D7-48B8-9793-BBFA497169DC}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE1597-87F3-403A-BFCE-D12879492C16}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="156.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44005</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44006</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1">
+        <v>44007</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="D6" s="1">
+        <v>44008</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
